--- a/寄送郵件通訊錄.xlsx
+++ b/寄送郵件通訊錄.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Repormail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC51E632-37B5-4545-AE43-535ABC3BD95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20DF4AD-8DCD-4CEC-A174-52A3C7EE52FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>寄送對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +66,22 @@
   </si>
   <si>
     <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪國瑋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,9 +134,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -393,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +451,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -445,14 +476,32 @@
       </c>
       <c r="G2" t="s">
         <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{232785F9-C92A-4CA5-9FAE-CE61E5FCFFF1}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{1457F7DB-DBB3-457C-9A31-6D0B1839CB36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/寄送郵件通訊錄.xlsx
+++ b/寄送郵件通訊錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Repormail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20DF4AD-8DCD-4CEC-A174-52A3C7EE52FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94776841-A7CD-4CB3-AF70-5756AE1FC22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>寄送對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,8 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洪國瑋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>鄭守利</t>
   </si>
 </sst>
 </file>
@@ -421,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -488,11 +487,22 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -500,8 +510,9 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{232785F9-C92A-4CA5-9FAE-CE61E5FCFFF1}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{1457F7DB-DBB3-457C-9A31-6D0B1839CB36}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{0B98E0A6-E76C-4560-BAE7-662908D7DD31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/寄送郵件通訊錄.xlsx
+++ b/寄送郵件通訊錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Repormail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94776841-A7CD-4CB3-AF70-5756AE1FC22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDE3F62-B030-4DE9-8CB3-2D18E9A020EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>寄送對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -503,6 +503,9 @@
       </c>
       <c r="G4" t="s">
         <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/寄送郵件通訊錄.xlsx
+++ b/寄送郵件通訊錄.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Repormail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDE3F62-B030-4DE9-8CB3-2D18E9A020EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2550CC-D5F0-4861-96EE-5091A2DACE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="寄送郵件通訊錄" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
   <si>
     <t>寄送對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,27 +61,140 @@
     <t>杏美小食堂</t>
   </si>
   <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總經理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐思辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營運一處總監-黃懷諠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營運二處總監-邱佳怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏子經理-洪國瑋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏子副理-黃姿萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃通孝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏子區經理-黃通孝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭守利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏子區經理-鄭守利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂嵐婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏子區經理-呂嵐婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏子區經理-歐思辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王將執行經理-張允承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱毓雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王將區經理-邱毓雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭宇勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王將區經理-鄭宇勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝牛副理-林怡如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝牛副理-黃立丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白雅帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝牛區經理-白雅帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">段純貞執行經理-曾怡婷 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段純貞副理-蘇姵如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段純貞副理-劉家恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橋村執行經理-張瑋倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張勝吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橋村區經理-張勝吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>victor.hou@kingza.com.tw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄭守利</t>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -133,11 +246,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -420,102 +536,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.69921875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.19921875" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{232785F9-C92A-4CA5-9FAE-CE61E5FCFFF1}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{1457F7DB-DBB3-457C-9A31-6D0B1839CB36}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{0B98E0A6-E76C-4560-BAE7-662908D7DD31}"/>
+    <hyperlink ref="A22" r:id="rId1" xr:uid="{70997DAE-12F8-402F-B8D3-B0E94F4627EC}"/>
+    <hyperlink ref="A2:A21" r:id="rId2" display="victor.hou@kingza.com.tw" xr:uid="{5A1A498F-7471-4881-BE30-D445402F536A}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{560DBF00-70B4-430C-87C6-4904FA82602D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
--- a/寄送郵件通訊錄.xlsx
+++ b/寄送郵件通訊錄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\Repormail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2550CC-D5F0-4861-96EE-5091A2DACE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E50CB-EF3B-423E-9F64-5D6CEFFAA453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>寄送對象</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rocker@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoenix.huang@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joanna.chiu@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allen.hung@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>總經理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tziping.huang@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>歐思辰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ryan.chang@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soz.cheng@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nash.huang@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>willson.zheng@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonnie.chiu@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yiju.lin@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jason.huang@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellie.su@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiaen.liu@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting.cheng@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angus.chang@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kevin.chang@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leona.ou@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanting.lu@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>betty.pai@kingza.com.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>營運一處總監-黃懷諠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,11 +269,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>victor.hou@kingza.com.tw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IT</t>
+    <t>michael.yuan@kingza.com.tw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -577,7 +666,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -601,12 +690,12 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -621,12 +710,12 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -641,12 +730,12 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -658,12 +747,12 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -675,40 +764,40 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -717,15 +806,15 @@
         <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -734,15 +823,15 @@
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
@@ -751,40 +840,40 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -793,12 +882,12 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>7</v>
@@ -807,26 +896,26 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -835,12 +924,12 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
@@ -849,12 +938,12 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -863,12 +952,12 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>7</v>
@@ -877,89 +966,108 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" xr:uid="{70997DAE-12F8-402F-B8D3-B0E94F4627EC}"/>
-    <hyperlink ref="A2:A21" r:id="rId2" display="victor.hou@kingza.com.tw" xr:uid="{5A1A498F-7471-4881-BE30-D445402F536A}"/>
-    <hyperlink ref="A23" r:id="rId3" xr:uid="{560DBF00-70B4-430C-87C6-4904FA82602D}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{232785F9-C92A-4CA5-9FAE-CE61E5FCFFF1}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{AC7007A9-1EAF-4F1E-9842-EA816B4E67B0}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{8783CECC-34F5-4D7F-B584-EC0AFDC2750C}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{347FBA55-E467-4678-9372-E04675B05601}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{4F3ED1DE-DFE1-4033-A60B-75E59D017B07}"/>
+    <hyperlink ref="A11" r:id="rId6" xr:uid="{E64480C9-1297-47D0-9D67-32D14A65D087}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{63A11EED-5612-48E1-89EE-88248C98E022}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{DDE1BE68-5593-41D1-8AC8-19AE5E24E256}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{523AB8FE-5C53-445F-9360-413A870D4832}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{1A57DC52-1DF2-429B-AA0A-5B8829FB6F50}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{F943ADE3-D7C8-4CBB-90D1-D1B32972832B}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{B3673B1D-54E9-43DB-AF76-DC7E510731C4}"/>
+    <hyperlink ref="A18" r:id="rId13" xr:uid="{C2F61B4D-5A9F-48D9-B5C9-163DB6595F2C}"/>
+    <hyperlink ref="A19" r:id="rId14" xr:uid="{F9B978D3-EC3B-4EC3-BCF8-D3B6B076ADD6}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{95A54A67-8848-4F85-8F61-506EC69985D7}"/>
+    <hyperlink ref="A20" r:id="rId16" xr:uid="{DE2939C8-95C4-408C-A1D6-691A05042BC6}"/>
+    <hyperlink ref="A21" r:id="rId17" xr:uid="{0EFCFD89-B008-4373-8D1B-6A83592121D6}"/>
+    <hyperlink ref="A10" r:id="rId18" xr:uid="{2E26917A-5FDF-42C1-9453-EF987D1DB197}"/>
+    <hyperlink ref="A9" r:id="rId19" xr:uid="{D3F0E068-5A3A-4E90-884E-CE745599383F}"/>
+    <hyperlink ref="A16" r:id="rId20" xr:uid="{40741635-8FE9-47E4-A76A-D9C42E2065DF}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{D587A91C-0CEC-4594-B1FF-46A2F39E4016}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{B2205361-947B-4927-AC92-E3BE61A716C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId23"/>
 </worksheet>
 </file>